--- a/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51500</v>
+        <v>51800</v>
       </c>
       <c r="E17" s="3">
         <v>16100</v>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="3">
         <v>-800</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/XTEG_YR_FIN.xlsx
@@ -1626,7 +1626,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E43" s="3">
         <v>8300</v>
@@ -1686,7 +1686,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="E45" s="3">
         <v>5300</v>
